--- a/biology/Botanique/Siphonochilus/Siphonochilus.xlsx
+++ b/biology/Botanique/Siphonochilus/Siphonochilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siphonochilus est un genre d'une dizaine d'espèces de plantes herbacées de la famille des Zingiberaceae qui poussent en Afrique tropicale et australe.
 La première description du genre Siphonochilus a été faite en 1911 par John Medley Wood &amp; Millicent Franks (épouse Flanders) dans le "Naturalist" de "Port Elisabeth".
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011) :
 Siphonochilus aethiopicus (Schweinf.) B.L.Burtt (1982)
 Siphonochilus bambutiorum A.D.Poulsen &amp; Lock (1999)
 Siphonochilus brachystemon (K.Schum.) B.L.Burtt (1982)
@@ -554,9 +568,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011) : 
 Siphonochilus carsonii (Baker) Lock, (1984) = Siphonochilus kirkii (Hook.f.) B.L.Burtt, (1982).
 Siphonochilus decorus (Druten) Lock, (1999) = Siphonochilus kirkii (Hook.f.) B.L.Burtt, (1982).
 Siphonochilus evae (Briq.) B.L.Burtt, (1982) = Siphonochilus aethiopicus (Schweinf.) B.L.Burtt, (1982).
